--- a/datasets/adcp_detailed_information.xlsx
+++ b/datasets/adcp_detailed_information.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t xml:space="preserve">Kc values from database</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
+    <t xml:space="preserve">lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensor dep</t>
   </si>
   <si>
@@ -226,18 +232,51 @@
     <t xml:space="preserve">KD10A000.nc</t>
   </si>
   <si>
+    <t xml:space="preserve">75°26.107'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09°02.844'N</t>
+  </si>
+  <si>
     <t xml:space="preserve">KD11A000.nc</t>
   </si>
   <si>
+    <t xml:space="preserve">75°26.046'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09°02.845'N</t>
+  </si>
+  <si>
     <t xml:space="preserve">KD12A000.nc</t>
   </si>
   <si>
+    <t xml:space="preserve">75°26.047'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09°02.894'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1415km</t>
+  </si>
+  <si>
     <t xml:space="preserve">KD13A000.nc</t>
   </si>
   <si>
+    <t xml:space="preserve">75°26.123'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09°02.880'N</t>
+  </si>
+  <si>
     <t xml:space="preserve">KD14A000.nc</t>
   </si>
   <si>
+    <t xml:space="preserve">75°26.079'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09°02.901'N</t>
+  </si>
+  <si>
     <t xml:space="preserve">KD8A000.nc</t>
   </si>
   <si>
@@ -263,21 +302,26 @@
   </si>
   <si>
     <t xml:space="preserve">MD9A000.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,15 +343,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,7 +363,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF43C330"/>
       </patternFill>
     </fill>
     <fill>
@@ -330,6 +376,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFAA95"/>
         <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF09E6F"/>
+        <bgColor rgb="FFFFAA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43C330"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,49 +425,77 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -444,7 +530,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF09E6F"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -472,7 +558,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF43C330"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -484,41 +570,155 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:AMM80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S58" activeCellId="0" sqref="S58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D44" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="topRight" activeCell="E56" activeCellId="0" sqref="E56:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="29.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="29.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="23" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -536,2763 +736,4239 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>42690.5416666667</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>43016.3333333333</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="n">
         <v>252.12890625</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>14585</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>0.43</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="O3" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="Q3" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="R3" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="S3" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="T3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="U3" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="Q4" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="S4" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>43016.5138888889</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>43383.3472222222</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="n">
         <v>181.625854492188</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>20741</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="R5" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="S5" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="T5" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="R6" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="S6" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>43383.6111111111</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>43760.3611111111</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1" t="n">
         <v>180.495361328125</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>20741</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="N7" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="O7" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="P7" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="Q7" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="S7" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="R8" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="S8" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>43760.5833333333</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>44179.5833333333</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1" t="n">
         <v>167.512573242188</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>20741</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="Q9" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="S9" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="T9" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="n">
         <v>26</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="S10" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="T10" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="R10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>44179.6527777778</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>44634.6527777778</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1" t="n">
         <v>287.948486328125</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>20741</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="M11" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="R11" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="S11" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="T11" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="U11" s="6" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="R12" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="O12" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="S12" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="T12" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="U12" s="6" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>44634.9166666667</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>44936.625</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1" t="n">
         <v>172.25927734375</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="H13" s="1" t="n">
         <v>20741</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="O13" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="Q13" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="R13" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="S13" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="T13" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="O14" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="Q14" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="R14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="S14" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="Q14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="R14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="n">
         <v>43035.6666666667</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>43370.375</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1" t="n">
         <v>198.089233398438</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="H16" s="1" t="n">
         <v>19152</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="M16" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="R16" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="S16" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="T16" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="R16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="R17" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="S17" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="R17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="n">
         <v>43370.5416666667</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>43768.4166666667</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="n">
         <v>164.703735351563</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="H18" s="1" t="n">
         <v>19152</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="M18" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="R18" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N19" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="R19" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>43772.7916666667</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>44165.6666666667</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1" t="n">
+        <v>264.59423828125</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>19152</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>43772.7916666667</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>44165.6666666667</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>264.59423828125</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>19152</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="K20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="S20" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="M20" s="1" t="n">
+      <c r="T20" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="N20" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="O20" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="P20" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="R20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="R21" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="n">
         <v>44165.9166666667</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>44625.375</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1" t="n">
         <v>119.335571289063</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="H22" s="1" t="n">
         <v>19152</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="M22" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="R22" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="S22" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="R23" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="R23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="n">
         <v>44654.0672685185</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>44738.6922685185</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1" t="n">
         <v>136.157104492188</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="H24" s="1" t="n">
         <v>19152</v>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="M24" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="N24" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="O24" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="P24" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="Q24" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="O24" s="8" t="n">
+      <c r="R24" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="P24" s="8" t="n">
+      <c r="S24" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="Q24" s="8" t="n">
+      <c r="T24" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="R24" s="8" t="n">
+      <c r="U24" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>38</v>
+      <c r="V24" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N25" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="P25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="R25" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="S25" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="Q25" s="5" t="n">
+      <c r="T25" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="n">
         <v>43374.25</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>43800.4583333333</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1" t="n">
         <v>118.263305664063</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="H27" s="1" t="n">
         <v>14585</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="I27" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="J27" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>0.43</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="M27" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="O27" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="P27" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="Q27" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="R27" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="S27" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="Q27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="R27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K28" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="L28" s="1" t="n">
+      <c r="Q28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="M28" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="R28" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="S28" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="Q28" s="5" t="n">
+      <c r="T28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="R28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4" t="n">
         <v>43800.6388888889</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>44169.4722222222</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="n">
         <v>312.103271484375</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="H29" s="1" t="n">
         <v>14585</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="I29" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="J29" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>0.43</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="M29" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="N29" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="O29" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="Q29" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="R29" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="S29" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="Q29" s="5" t="n">
+      <c r="T29" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="R29" s="5" t="n">
+      <c r="U29" s="6" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="N30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="O30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="P30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="Q30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="R30" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="S30" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="Q30" s="5" t="n">
+      <c r="T30" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="R30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="n">
         <v>44169.6388888889</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>44628.3888888889</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1" t="n">
         <v>144.395141601563</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="H31" s="1" t="n">
         <v>14585</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="I31" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="J31" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>0.43</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="M31" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="N31" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="O31" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="P31" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="Q31" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="R31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="S31" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="T31" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="R31" s="1" t="n">
+      <c r="U31" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="N32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="O32" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="P32" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="Q32" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="R32" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="S32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="Q32" s="5" t="n">
+      <c r="T32" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="R32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="n">
         <v>44628.5833333333</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>44927.375</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="n">
         <v>142.465515136719</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="H33" s="1" t="n">
         <v>14585</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="I33" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="J33" s="5" t="n">
         <v>0.44</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>0.42</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>0.43</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="M33" s="1" t="n">
         <v>150</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>39</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="O33" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="R33" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="S33" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="Q33" s="5" t="n">
+      <c r="T33" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="R33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="N34" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="O34" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="P34" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="N34" s="5" t="n">
+      <c r="Q34" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="R34" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="S34" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="T34" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="R34" s="1" t="n">
+      <c r="U34" s="1" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4" t="n">
         <v>43013.375</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>43379.2916666667</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="n">
         <v>176.361206054688</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="H36" s="1" t="n">
         <v>20445</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="M36" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="O36" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="P36" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="Q36" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="R36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="Q36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="R36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="N37" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="P37" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="Q37" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="R37" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="S37" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="Q37" s="5" t="n">
+      <c r="T37" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="R37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4" t="n">
         <v>43379.5416666667</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>43756.375</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1" t="n">
         <v>179.879272460938</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="H38" s="1" t="n">
         <v>20445</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="M38" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="N38" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="O38" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M38" s="1" t="n">
+      <c r="P38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="Q38" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="R38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="P38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="Q38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="R38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="N39" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L39" s="1" t="n">
+      <c r="O39" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="M39" s="1" t="n">
+      <c r="P39" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="Q39" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="R39" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="Q39" s="5" t="n">
+      <c r="T39" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="R39" s="5" t="n">
+      <c r="U39" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="n">
         <v>43756.5833333333</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>44176.4583333333</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1" t="n">
         <v>168.385314941406</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="H40" s="1" t="n">
         <v>20445</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="M40" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="N40" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L40" s="1" t="n">
+      <c r="O40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="M40" s="1" t="n">
+      <c r="P40" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="Q40" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="R40" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="P40" s="5" t="n">
+      <c r="S40" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="Q40" s="5" t="n">
+      <c r="T40" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="R40" s="5" t="n">
+      <c r="U40" s="6" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="N41" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L41" s="1" t="n">
+      <c r="O41" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="M41" s="1" t="n">
+      <c r="P41" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="Q41" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="R41" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="P41" s="5" t="n">
+      <c r="S41" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="Q41" s="5" t="n">
+      <c r="T41" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="R41" s="5" t="n">
+      <c r="U41" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="n">
         <v>44176.75</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4" t="n">
         <v>44631.875</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N43" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="O43" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="M43" s="1" t="n">
+      <c r="P43" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="Q43" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="R43" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="S43" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="Q43" s="5" t="n">
+      <c r="T43" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="R43" s="5" t="n">
+      <c r="U43" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="n">
         <v>44631.9583333333</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="4" t="n">
         <v>44932.6666666667</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="n">
         <v>155.113037109375</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="H44" s="1" t="n">
         <v>17369</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="I44" s="10" t="n">
         <v>0.45</v>
       </c>
-      <c r="G44" s="10" t="n">
+      <c r="J44" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="K44" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="I44" s="10" t="n">
+      <c r="L44" s="10" t="n">
         <v>0.46</v>
       </c>
-      <c r="J44" s="1" t="n">
+      <c r="M44" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="N44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="L44" s="1" t="n">
+      <c r="O44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="M44" s="1" t="n">
+      <c r="P44" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="N44" s="1" t="n">
+      <c r="Q44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="O44" s="5" t="n">
+      <c r="R44" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="P44" s="5" t="n">
+      <c r="S44" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="Q44" s="5" t="n">
+      <c r="T44" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="R44" s="5" t="n">
+      <c r="U44" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N45" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L45" s="1" t="n">
+      <c r="O45" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="M45" s="1" t="n">
+      <c r="P45" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N45" s="1" t="n">
+      <c r="Q45" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O45" s="5" t="n">
+      <c r="R45" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P45" s="5" t="n">
+      <c r="S45" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="Q45" s="5" t="n">
+      <c r="T45" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="R45" s="5" t="n">
+      <c r="U45" s="6" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B48" s="4" t="n">
         <v>42375.4166666667</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="4" t="n">
         <v>42686.25</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="n">
         <v>180.254943847656</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="H48" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="I48" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="J48" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="K48" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="L48" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J48" s="1" t="n">
+      <c r="M48" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="N48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="O48" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M48" s="1" t="n">
+      <c r="P48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="Q48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O48" s="5" t="n">
+      <c r="R48" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="P48" s="5" t="n">
+      <c r="S48" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="Q48" s="5" t="n">
+      <c r="T48" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="R48" s="5" t="n">
+      <c r="U48" s="6" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B49" s="4" t="n">
         <v>42686.4583333333</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="4" t="n">
         <v>43011.375</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1" t="n">
         <v>164.687866210938</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="H49" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="I49" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="J49" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="K49" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="L49" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J49" s="1" t="n">
+      <c r="M49" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="N49" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="L49" s="5" t="n">
+      <c r="O49" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M49" s="5" t="n">
+      <c r="P49" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="N49" s="5" t="n">
+      <c r="Q49" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="R49" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="S49" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="Q49" s="1" t="n">
+      <c r="T49" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="R49" s="1" t="n">
+      <c r="U49" s="1" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B50" s="4" t="n">
         <v>43011.6666666667</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="4" t="n">
         <v>43368.2916666667</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1" t="n">
         <v>174.015197753906</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="H50" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="I50" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="J50" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="K50" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="L50" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J50" s="1" t="n">
+      <c r="M50" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="N50" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="L50" s="5" t="n">
+      <c r="O50" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M50" s="5" t="n">
+      <c r="P50" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="N50" s="5" t="n">
+      <c r="Q50" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="O50" s="1" t="n">
+      <c r="R50" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="S50" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="Q50" s="1" t="n">
+      <c r="T50" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="R50" s="1" t="n">
+      <c r="U50" s="1" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B51" s="4" t="n">
         <v>43368.5416666667</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="4" t="n">
         <v>43754.375</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1" t="n">
         <v>145.984619140625</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="H51" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="I51" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="J51" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="K51" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="L51" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J51" s="1" t="n">
+      <c r="M51" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K51" s="6" t="n">
+      <c r="N51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L51" s="6" t="n">
+      <c r="O51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="P51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="N51" s="6" t="n">
+      <c r="Q51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O51" s="5" t="n">
+      <c r="R51" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="P51" s="5" t="n">
+      <c r="S51" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="Q51" s="5" t="n">
+      <c r="T51" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="R51" s="5" t="n">
+      <c r="U51" s="6" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B52" s="4" t="n">
         <v>43754.625</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="4" t="n">
         <v>44164.3333333333</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1" t="n">
         <v>143.967346191406</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="H52" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="I52" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="J52" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="K52" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="L52" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J52" s="1" t="n">
+      <c r="M52" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="N52" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="L52" s="5" t="n">
+      <c r="O52" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="M52" s="5" t="n">
+      <c r="P52" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="N52" s="5" t="n">
+      <c r="Q52" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="O52" s="1" t="n">
+      <c r="R52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="P52" s="1" t="n">
+      <c r="S52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="Q52" s="1" t="n">
+      <c r="T52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="R52" s="1" t="n">
+      <c r="U52" s="1" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B53" s="4" t="n">
         <v>44164.5416666667</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="4" t="n">
         <v>44623.4166666667</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1" t="n">
         <v>157.596923828125</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="H53" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="I53" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="J53" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="K53" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="L53" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J53" s="1" t="n">
+      <c r="M53" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="N53" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="L53" s="5" t="n">
+      <c r="O53" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="M53" s="5" t="n">
+      <c r="P53" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="N53" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q53" s="1" t="n">
+      <c r="Q53" s="6" t="n">
         <v>35</v>
       </c>
       <c r="R53" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="S53" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4" t="n">
         <v>44623.8194444444</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="4" t="n">
         <v>44931.3611111111</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1" t="n">
         <v>159.859313964844</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="H54" s="1" t="n">
         <v>15687</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="I54" s="11" t="n">
         <v>0.44</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="J54" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="K54" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="L54" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J54" s="1" t="n">
+      <c r="M54" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="N54" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="L54" s="5" t="n">
+      <c r="O54" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="M54" s="5" t="n">
+      <c r="P54" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="N54" s="5" t="n">
+      <c r="Q54" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="R54" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="P54" s="1" t="n">
+      <c r="S54" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="Q54" s="1" t="n">
+      <c r="T54" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="R54" s="1" t="n">
+      <c r="U54" s="1" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="J55" s="0"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B56" s="4" t="n">
         <v>43015.0416666667</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="4" t="n">
         <v>43381.375</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="1" t="n">
         <v>200.5341796875</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="H56" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="I56" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="J56" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="K56" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="L56" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J56" s="1" t="n">
+      <c r="M56" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K56" s="1" t="n">
+      <c r="N56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L56" s="1" t="n">
+      <c r="O56" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="M56" s="1" t="n">
+      <c r="P56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="N56" s="1" t="n">
+      <c r="Q56" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O56" s="5" t="n">
+      <c r="R56" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="P56" s="5" t="n">
+      <c r="S56" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="Q56" s="5" t="n">
+      <c r="T56" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="R56" s="5" t="n">
+      <c r="U56" s="6" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4" t="n">
         <v>43381.5833333333</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="4" t="n">
         <v>43758.375</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="1" t="n">
         <v>123.434936523438</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="H57" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="I57" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="J57" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="K57" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="L57" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J57" s="1" t="n">
+      <c r="M57" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="N57" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="L57" s="5" t="n">
+      <c r="O57" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="M57" s="5" t="n">
+      <c r="P57" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="N57" s="5" t="n">
+      <c r="Q57" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="O57" s="1" t="n">
+      <c r="R57" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="P57" s="1" t="n">
+      <c r="S57" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="Q57" s="1" t="n">
+      <c r="T57" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="R57" s="1" t="n">
+      <c r="U57" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B58" s="4" t="n">
         <v>43758.6111111111</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="4" t="n">
         <v>44178.3611111111</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="1" t="n">
         <v>176.7255859375</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="H58" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="I58" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="J58" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="K58" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="L58" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J58" s="1" t="n">
+      <c r="M58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="N58" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="L58" s="5" t="n">
+      <c r="O58" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="M58" s="5" t="n">
+      <c r="P58" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="N58" s="5" t="n">
+      <c r="Q58" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="O58" s="1" t="n">
+      <c r="R58" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="P58" s="1" t="n">
+      <c r="S58" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Q58" s="1" t="n">
+      <c r="T58" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="R58" s="1" t="n">
+      <c r="U58" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="3" t="n">
+    <row r="59" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="14" t="n">
         <v>44178.4583333333</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="14" t="n">
         <v>44633.4583333333</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13" t="n">
         <v>91.7740478515625</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="H59" s="13" t="n">
         <v>20731</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="I59" s="15" t="n">
         <v>0.49</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="J59" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="K59" s="13" t="n">
         <v>0.49</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="L59" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="J59" s="1" t="n">
+      <c r="M59" s="13" t="n">
         <v>150</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="N59" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="L59" s="5" t="n">
+      <c r="O59" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="M59" s="5" t="n">
+      <c r="P59" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="N59" s="5" t="n">
+      <c r="Q59" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="O59" s="1" t="n">
+      <c r="R59" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="P59" s="1" t="n">
+      <c r="S59" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="Q59" s="1" t="n">
+      <c r="T59" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="R59" s="1" t="n">
+      <c r="U59" s="13" t="n">
         <v>42</v>
       </c>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="13"/>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="13"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="13"/>
+      <c r="AW59" s="13"/>
+      <c r="AX59" s="13"/>
+      <c r="AY59" s="13"/>
+      <c r="AZ59" s="13"/>
+      <c r="BA59" s="13"/>
+      <c r="BB59" s="13"/>
+      <c r="BC59" s="13"/>
+      <c r="BD59" s="13"/>
+      <c r="BE59" s="13"/>
+      <c r="BF59" s="13"/>
+      <c r="BG59" s="13"/>
+      <c r="BH59" s="13"/>
+      <c r="BI59" s="13"/>
+      <c r="BJ59" s="13"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="13"/>
+      <c r="BM59" s="13"/>
+      <c r="BN59" s="13"/>
+      <c r="BO59" s="13"/>
+      <c r="BP59" s="13"/>
+      <c r="BQ59" s="13"/>
+      <c r="BR59" s="13"/>
+      <c r="BS59" s="13"/>
+      <c r="BT59" s="13"/>
+      <c r="BU59" s="13"/>
+      <c r="BV59" s="13"/>
+      <c r="BW59" s="13"/>
+      <c r="BX59" s="13"/>
+      <c r="BY59" s="13"/>
+      <c r="BZ59" s="13"/>
+      <c r="CA59" s="13"/>
+      <c r="CB59" s="13"/>
+      <c r="CC59" s="13"/>
+      <c r="CD59" s="13"/>
+      <c r="CE59" s="13"/>
+      <c r="CF59" s="13"/>
+      <c r="CG59" s="13"/>
+      <c r="CH59" s="13"/>
+      <c r="CI59" s="13"/>
+      <c r="CJ59" s="13"/>
+      <c r="CK59" s="13"/>
+      <c r="CL59" s="13"/>
+      <c r="CM59" s="13"/>
+      <c r="CN59" s="13"/>
+      <c r="CO59" s="13"/>
+      <c r="CP59" s="13"/>
+      <c r="CQ59" s="13"/>
+      <c r="CR59" s="13"/>
+      <c r="CS59" s="13"/>
+      <c r="CT59" s="13"/>
+      <c r="CU59" s="13"/>
+      <c r="CV59" s="13"/>
+      <c r="CW59" s="13"/>
+      <c r="CX59" s="13"/>
+      <c r="CY59" s="13"/>
+      <c r="CZ59" s="13"/>
+      <c r="DA59" s="13"/>
+      <c r="DB59" s="13"/>
+      <c r="DC59" s="13"/>
+      <c r="DD59" s="13"/>
+      <c r="DE59" s="13"/>
+      <c r="DF59" s="13"/>
+      <c r="DG59" s="13"/>
+      <c r="DH59" s="13"/>
+      <c r="DI59" s="13"/>
+      <c r="DJ59" s="13"/>
+      <c r="DK59" s="13"/>
+      <c r="DL59" s="13"/>
+      <c r="DM59" s="13"/>
+      <c r="DN59" s="13"/>
+      <c r="DO59" s="13"/>
+      <c r="DP59" s="13"/>
+      <c r="DQ59" s="13"/>
+      <c r="DR59" s="13"/>
+      <c r="DS59" s="13"/>
+      <c r="DT59" s="13"/>
+      <c r="DU59" s="13"/>
+      <c r="DV59" s="13"/>
+      <c r="DW59" s="13"/>
+      <c r="DX59" s="13"/>
+      <c r="DY59" s="13"/>
+      <c r="DZ59" s="13"/>
+      <c r="EA59" s="13"/>
+      <c r="EB59" s="13"/>
+      <c r="EC59" s="13"/>
+      <c r="ED59" s="13"/>
+      <c r="EE59" s="13"/>
+      <c r="EF59" s="13"/>
+      <c r="EG59" s="13"/>
+      <c r="EH59" s="13"/>
+      <c r="EI59" s="13"/>
+      <c r="EJ59" s="13"/>
+      <c r="EK59" s="13"/>
+      <c r="EL59" s="13"/>
+      <c r="EM59" s="13"/>
+      <c r="EN59" s="13"/>
+      <c r="EO59" s="13"/>
+      <c r="EP59" s="13"/>
+      <c r="EQ59" s="13"/>
+      <c r="ER59" s="13"/>
+      <c r="ES59" s="13"/>
+      <c r="ET59" s="13"/>
+      <c r="EU59" s="13"/>
+      <c r="EV59" s="13"/>
+      <c r="EW59" s="13"/>
+      <c r="EX59" s="13"/>
+      <c r="EY59" s="13"/>
+      <c r="EZ59" s="13"/>
+      <c r="FA59" s="13"/>
+      <c r="FB59" s="13"/>
+      <c r="FC59" s="13"/>
+      <c r="FD59" s="13"/>
+      <c r="FE59" s="13"/>
+      <c r="FF59" s="13"/>
+      <c r="FG59" s="13"/>
+      <c r="FH59" s="13"/>
+      <c r="FI59" s="13"/>
+      <c r="FJ59" s="13"/>
+      <c r="FK59" s="13"/>
+      <c r="FL59" s="13"/>
+      <c r="FM59" s="13"/>
+      <c r="FN59" s="13"/>
+      <c r="FO59" s="13"/>
+      <c r="FP59" s="13"/>
+      <c r="FQ59" s="13"/>
+      <c r="FR59" s="13"/>
+      <c r="FS59" s="13"/>
+      <c r="FT59" s="13"/>
+      <c r="FU59" s="13"/>
+      <c r="FV59" s="13"/>
+      <c r="FW59" s="13"/>
+      <c r="FX59" s="13"/>
+      <c r="FY59" s="13"/>
+      <c r="FZ59" s="13"/>
+      <c r="GA59" s="13"/>
+      <c r="GB59" s="13"/>
+      <c r="GC59" s="13"/>
+      <c r="GD59" s="13"/>
+      <c r="GE59" s="13"/>
+      <c r="GF59" s="13"/>
+      <c r="GG59" s="13"/>
+      <c r="GH59" s="13"/>
+      <c r="GI59" s="13"/>
+      <c r="GJ59" s="13"/>
+      <c r="GK59" s="13"/>
+      <c r="GL59" s="13"/>
+      <c r="GM59" s="13"/>
+      <c r="GN59" s="13"/>
+      <c r="GO59" s="13"/>
+      <c r="GP59" s="13"/>
+      <c r="GQ59" s="13"/>
+      <c r="GR59" s="13"/>
+      <c r="GS59" s="13"/>
+      <c r="GT59" s="13"/>
+      <c r="GU59" s="13"/>
+      <c r="GV59" s="13"/>
+      <c r="GW59" s="13"/>
+      <c r="GX59" s="13"/>
+      <c r="GY59" s="13"/>
+      <c r="GZ59" s="13"/>
+      <c r="HA59" s="13"/>
+      <c r="HB59" s="13"/>
+      <c r="HC59" s="13"/>
+      <c r="HD59" s="13"/>
+      <c r="HE59" s="13"/>
+      <c r="HF59" s="13"/>
+      <c r="HG59" s="13"/>
+      <c r="HH59" s="13"/>
+      <c r="HI59" s="13"/>
+      <c r="HJ59" s="13"/>
+      <c r="HK59" s="13"/>
+      <c r="HL59" s="13"/>
+      <c r="HM59" s="13"/>
+      <c r="HN59" s="13"/>
+      <c r="HO59" s="13"/>
+      <c r="HP59" s="13"/>
+      <c r="HQ59" s="13"/>
+      <c r="HR59" s="13"/>
+      <c r="HS59" s="13"/>
+      <c r="HT59" s="13"/>
+      <c r="HU59" s="13"/>
+      <c r="HV59" s="13"/>
+      <c r="HW59" s="13"/>
+      <c r="HX59" s="13"/>
+      <c r="HY59" s="13"/>
+      <c r="HZ59" s="13"/>
+      <c r="IA59" s="13"/>
+      <c r="IB59" s="13"/>
+      <c r="IC59" s="13"/>
+      <c r="ID59" s="13"/>
+      <c r="IE59" s="13"/>
+      <c r="IF59" s="13"/>
+      <c r="IG59" s="13"/>
+      <c r="IH59" s="13"/>
+      <c r="II59" s="13"/>
+      <c r="IJ59" s="13"/>
+      <c r="IK59" s="13"/>
+      <c r="IL59" s="13"/>
+      <c r="IM59" s="13"/>
+      <c r="IN59" s="13"/>
+      <c r="IO59" s="13"/>
+      <c r="IP59" s="13"/>
+      <c r="IQ59" s="13"/>
+      <c r="IR59" s="13"/>
+      <c r="IS59" s="13"/>
+      <c r="IT59" s="13"/>
+      <c r="IU59" s="13"/>
+      <c r="IV59" s="13"/>
+      <c r="IW59" s="13"/>
+      <c r="IX59" s="13"/>
+      <c r="IY59" s="13"/>
+      <c r="IZ59" s="13"/>
+      <c r="JA59" s="13"/>
+      <c r="JB59" s="13"/>
+      <c r="JC59" s="13"/>
+      <c r="JD59" s="13"/>
+      <c r="JE59" s="13"/>
+      <c r="JF59" s="13"/>
+      <c r="JG59" s="13"/>
+      <c r="JH59" s="13"/>
+      <c r="JI59" s="13"/>
+      <c r="JJ59" s="13"/>
+      <c r="JK59" s="13"/>
+      <c r="JL59" s="13"/>
+      <c r="JM59" s="13"/>
+      <c r="JN59" s="13"/>
+      <c r="JO59" s="13"/>
+      <c r="JP59" s="13"/>
+      <c r="JQ59" s="13"/>
+      <c r="JR59" s="13"/>
+      <c r="JS59" s="13"/>
+      <c r="JT59" s="13"/>
+      <c r="JU59" s="13"/>
+      <c r="JV59" s="13"/>
+      <c r="JW59" s="13"/>
+      <c r="JX59" s="13"/>
+      <c r="JY59" s="13"/>
+      <c r="JZ59" s="13"/>
+      <c r="KA59" s="13"/>
+      <c r="KB59" s="13"/>
+      <c r="KC59" s="13"/>
+      <c r="KD59" s="13"/>
+      <c r="KE59" s="13"/>
+      <c r="KF59" s="13"/>
+      <c r="KG59" s="13"/>
+      <c r="KH59" s="13"/>
+      <c r="KI59" s="13"/>
+      <c r="KJ59" s="13"/>
+      <c r="KK59" s="13"/>
+      <c r="KL59" s="13"/>
+      <c r="KM59" s="13"/>
+      <c r="KN59" s="13"/>
+      <c r="KO59" s="13"/>
+      <c r="KP59" s="13"/>
+      <c r="KQ59" s="13"/>
+      <c r="KR59" s="13"/>
+      <c r="KS59" s="13"/>
+      <c r="KT59" s="13"/>
+      <c r="KU59" s="13"/>
+      <c r="KV59" s="13"/>
+      <c r="KW59" s="13"/>
+      <c r="KX59" s="13"/>
+      <c r="KY59" s="13"/>
+      <c r="KZ59" s="13"/>
+      <c r="LA59" s="13"/>
+      <c r="LB59" s="13"/>
+      <c r="LC59" s="13"/>
+      <c r="LD59" s="13"/>
+      <c r="LE59" s="13"/>
+      <c r="LF59" s="13"/>
+      <c r="LG59" s="13"/>
+      <c r="LH59" s="13"/>
+      <c r="LI59" s="13"/>
+      <c r="LJ59" s="13"/>
+      <c r="LK59" s="13"/>
+      <c r="LL59" s="13"/>
+      <c r="LM59" s="13"/>
+      <c r="LN59" s="13"/>
+      <c r="LO59" s="13"/>
+      <c r="LP59" s="13"/>
+      <c r="LQ59" s="13"/>
+      <c r="LR59" s="13"/>
+      <c r="LS59" s="13"/>
+      <c r="LT59" s="13"/>
+      <c r="LU59" s="13"/>
+      <c r="LV59" s="13"/>
+      <c r="LW59" s="13"/>
+      <c r="LX59" s="13"/>
+      <c r="LY59" s="13"/>
+      <c r="LZ59" s="13"/>
+      <c r="MA59" s="13"/>
+      <c r="MB59" s="13"/>
+      <c r="MC59" s="13"/>
+      <c r="MD59" s="13"/>
+      <c r="ME59" s="13"/>
+      <c r="MF59" s="13"/>
+      <c r="MG59" s="13"/>
+      <c r="MH59" s="13"/>
+      <c r="MI59" s="13"/>
+      <c r="MJ59" s="13"/>
+      <c r="MK59" s="13"/>
+      <c r="ML59" s="13"/>
+      <c r="MM59" s="13"/>
+      <c r="MN59" s="13"/>
+      <c r="MO59" s="13"/>
+      <c r="MP59" s="13"/>
+      <c r="MQ59" s="13"/>
+      <c r="MR59" s="13"/>
+      <c r="MS59" s="13"/>
+      <c r="MT59" s="13"/>
+      <c r="MU59" s="13"/>
+      <c r="MV59" s="13"/>
+      <c r="MW59" s="13"/>
+      <c r="MX59" s="13"/>
+      <c r="MY59" s="13"/>
+      <c r="MZ59" s="13"/>
+      <c r="NA59" s="13"/>
+      <c r="NB59" s="13"/>
+      <c r="NC59" s="13"/>
+      <c r="ND59" s="13"/>
+      <c r="NE59" s="13"/>
+      <c r="NF59" s="13"/>
+      <c r="NG59" s="13"/>
+      <c r="NH59" s="13"/>
+      <c r="NI59" s="13"/>
+      <c r="NJ59" s="13"/>
+      <c r="NK59" s="13"/>
+      <c r="NL59" s="13"/>
+      <c r="NM59" s="13"/>
+      <c r="NN59" s="13"/>
+      <c r="NO59" s="13"/>
+      <c r="NP59" s="13"/>
+      <c r="NQ59" s="13"/>
+      <c r="NR59" s="13"/>
+      <c r="NS59" s="13"/>
+      <c r="NT59" s="13"/>
+      <c r="NU59" s="13"/>
+      <c r="NV59" s="13"/>
+      <c r="NW59" s="13"/>
+      <c r="NX59" s="13"/>
+      <c r="NY59" s="13"/>
+      <c r="NZ59" s="13"/>
+      <c r="OA59" s="13"/>
+      <c r="OB59" s="13"/>
+      <c r="OC59" s="13"/>
+      <c r="OD59" s="13"/>
+      <c r="OE59" s="13"/>
+      <c r="OF59" s="13"/>
+      <c r="OG59" s="13"/>
+      <c r="OH59" s="13"/>
+      <c r="OI59" s="13"/>
+      <c r="OJ59" s="13"/>
+      <c r="OK59" s="13"/>
+      <c r="OL59" s="13"/>
+      <c r="OM59" s="13"/>
+      <c r="ON59" s="13"/>
+      <c r="OO59" s="13"/>
+      <c r="OP59" s="13"/>
+      <c r="OQ59" s="13"/>
+      <c r="OR59" s="13"/>
+      <c r="OS59" s="13"/>
+      <c r="OT59" s="13"/>
+      <c r="OU59" s="13"/>
+      <c r="OV59" s="13"/>
+      <c r="OW59" s="13"/>
+      <c r="OX59" s="13"/>
+      <c r="OY59" s="13"/>
+      <c r="OZ59" s="13"/>
+      <c r="PA59" s="13"/>
+      <c r="PB59" s="13"/>
+      <c r="PC59" s="13"/>
+      <c r="PD59" s="13"/>
+      <c r="PE59" s="13"/>
+      <c r="PF59" s="13"/>
+      <c r="PG59" s="13"/>
+      <c r="PH59" s="13"/>
+      <c r="PI59" s="13"/>
+      <c r="PJ59" s="13"/>
+      <c r="PK59" s="13"/>
+      <c r="PL59" s="13"/>
+      <c r="PM59" s="13"/>
+      <c r="PN59" s="13"/>
+      <c r="PO59" s="13"/>
+      <c r="PP59" s="13"/>
+      <c r="PQ59" s="13"/>
+      <c r="PR59" s="13"/>
+      <c r="PS59" s="13"/>
+      <c r="PT59" s="13"/>
+      <c r="PU59" s="13"/>
+      <c r="PV59" s="13"/>
+      <c r="PW59" s="13"/>
+      <c r="PX59" s="13"/>
+      <c r="PY59" s="13"/>
+      <c r="PZ59" s="13"/>
+      <c r="QA59" s="13"/>
+      <c r="QB59" s="13"/>
+      <c r="QC59" s="13"/>
+      <c r="QD59" s="13"/>
+      <c r="QE59" s="13"/>
+      <c r="QF59" s="13"/>
+      <c r="QG59" s="13"/>
+      <c r="QH59" s="13"/>
+      <c r="QI59" s="13"/>
+      <c r="QJ59" s="13"/>
+      <c r="QK59" s="13"/>
+      <c r="QL59" s="13"/>
+      <c r="QM59" s="13"/>
+      <c r="QN59" s="13"/>
+      <c r="QO59" s="13"/>
+      <c r="QP59" s="13"/>
+      <c r="QQ59" s="13"/>
+      <c r="QR59" s="13"/>
+      <c r="QS59" s="13"/>
+      <c r="QT59" s="13"/>
+      <c r="QU59" s="13"/>
+      <c r="QV59" s="13"/>
+      <c r="QW59" s="13"/>
+      <c r="QX59" s="13"/>
+      <c r="QY59" s="13"/>
+      <c r="QZ59" s="13"/>
+      <c r="RA59" s="13"/>
+      <c r="RB59" s="13"/>
+      <c r="RC59" s="13"/>
+      <c r="RD59" s="13"/>
+      <c r="RE59" s="13"/>
+      <c r="RF59" s="13"/>
+      <c r="RG59" s="13"/>
+      <c r="RH59" s="13"/>
+      <c r="RI59" s="13"/>
+      <c r="RJ59" s="13"/>
+      <c r="RK59" s="13"/>
+      <c r="RL59" s="13"/>
+      <c r="RM59" s="13"/>
+      <c r="RN59" s="13"/>
+      <c r="RO59" s="13"/>
+      <c r="RP59" s="13"/>
+      <c r="RQ59" s="13"/>
+      <c r="RR59" s="13"/>
+      <c r="RS59" s="13"/>
+      <c r="RT59" s="13"/>
+      <c r="RU59" s="13"/>
+      <c r="RV59" s="13"/>
+      <c r="RW59" s="13"/>
+      <c r="RX59" s="13"/>
+      <c r="RY59" s="13"/>
+      <c r="RZ59" s="13"/>
+      <c r="SA59" s="13"/>
+      <c r="SB59" s="13"/>
+      <c r="SC59" s="13"/>
+      <c r="SD59" s="13"/>
+      <c r="SE59" s="13"/>
+      <c r="SF59" s="13"/>
+      <c r="SG59" s="13"/>
+      <c r="SH59" s="13"/>
+      <c r="SI59" s="13"/>
+      <c r="SJ59" s="13"/>
+      <c r="SK59" s="13"/>
+      <c r="SL59" s="13"/>
+      <c r="SM59" s="13"/>
+      <c r="SN59" s="13"/>
+      <c r="SO59" s="13"/>
+      <c r="SP59" s="13"/>
+      <c r="SQ59" s="13"/>
+      <c r="SR59" s="13"/>
+      <c r="SS59" s="13"/>
+      <c r="ST59" s="13"/>
+      <c r="SU59" s="13"/>
+      <c r="SV59" s="13"/>
+      <c r="SW59" s="13"/>
+      <c r="SX59" s="13"/>
+      <c r="SY59" s="13"/>
+      <c r="SZ59" s="13"/>
+      <c r="TA59" s="13"/>
+      <c r="TB59" s="13"/>
+      <c r="TC59" s="13"/>
+      <c r="TD59" s="13"/>
+      <c r="TE59" s="13"/>
+      <c r="TF59" s="13"/>
+      <c r="TG59" s="13"/>
+      <c r="TH59" s="13"/>
+      <c r="TI59" s="13"/>
+      <c r="TJ59" s="13"/>
+      <c r="TK59" s="13"/>
+      <c r="TL59" s="13"/>
+      <c r="TM59" s="13"/>
+      <c r="TN59" s="13"/>
+      <c r="TO59" s="13"/>
+      <c r="TP59" s="13"/>
+      <c r="TQ59" s="13"/>
+      <c r="TR59" s="13"/>
+      <c r="TS59" s="13"/>
+      <c r="TT59" s="13"/>
+      <c r="TU59" s="13"/>
+      <c r="TV59" s="13"/>
+      <c r="TW59" s="13"/>
+      <c r="TX59" s="13"/>
+      <c r="TY59" s="13"/>
+      <c r="TZ59" s="13"/>
+      <c r="UA59" s="13"/>
+      <c r="UB59" s="13"/>
+      <c r="UC59" s="13"/>
+      <c r="UD59" s="13"/>
+      <c r="UE59" s="13"/>
+      <c r="UF59" s="13"/>
+      <c r="UG59" s="13"/>
+      <c r="UH59" s="13"/>
+      <c r="UI59" s="13"/>
+      <c r="UJ59" s="13"/>
+      <c r="UK59" s="13"/>
+      <c r="UL59" s="13"/>
+      <c r="UM59" s="13"/>
+      <c r="UN59" s="13"/>
+      <c r="UO59" s="13"/>
+      <c r="UP59" s="13"/>
+      <c r="UQ59" s="13"/>
+      <c r="UR59" s="13"/>
+      <c r="US59" s="13"/>
+      <c r="UT59" s="13"/>
+      <c r="UU59" s="13"/>
+      <c r="UV59" s="13"/>
+      <c r="UW59" s="13"/>
+      <c r="UX59" s="13"/>
+      <c r="UY59" s="13"/>
+      <c r="UZ59" s="13"/>
+      <c r="VA59" s="13"/>
+      <c r="VB59" s="13"/>
+      <c r="VC59" s="13"/>
+      <c r="VD59" s="13"/>
+      <c r="VE59" s="13"/>
+      <c r="VF59" s="13"/>
+      <c r="VG59" s="13"/>
+      <c r="VH59" s="13"/>
+      <c r="VI59" s="13"/>
+      <c r="VJ59" s="13"/>
+      <c r="VK59" s="13"/>
+      <c r="VL59" s="13"/>
+      <c r="VM59" s="13"/>
+      <c r="VN59" s="13"/>
+      <c r="VO59" s="13"/>
+      <c r="VP59" s="13"/>
+      <c r="VQ59" s="13"/>
+      <c r="VR59" s="13"/>
+      <c r="VS59" s="13"/>
+      <c r="VT59" s="13"/>
+      <c r="VU59" s="13"/>
+      <c r="VV59" s="13"/>
+      <c r="VW59" s="13"/>
+      <c r="VX59" s="13"/>
+      <c r="VY59" s="13"/>
+      <c r="VZ59" s="13"/>
+      <c r="WA59" s="13"/>
+      <c r="WB59" s="13"/>
+      <c r="WC59" s="13"/>
+      <c r="WD59" s="13"/>
+      <c r="WE59" s="13"/>
+      <c r="WF59" s="13"/>
+      <c r="WG59" s="13"/>
+      <c r="WH59" s="13"/>
+      <c r="WI59" s="13"/>
+      <c r="WJ59" s="13"/>
+      <c r="WK59" s="13"/>
+      <c r="WL59" s="13"/>
+      <c r="WM59" s="13"/>
+      <c r="WN59" s="13"/>
+      <c r="WO59" s="13"/>
+      <c r="WP59" s="13"/>
+      <c r="WQ59" s="13"/>
+      <c r="WR59" s="13"/>
+      <c r="WS59" s="13"/>
+      <c r="WT59" s="13"/>
+      <c r="WU59" s="13"/>
+      <c r="WV59" s="13"/>
+      <c r="WW59" s="13"/>
+      <c r="WX59" s="13"/>
+      <c r="WY59" s="13"/>
+      <c r="WZ59" s="13"/>
+      <c r="XA59" s="13"/>
+      <c r="XB59" s="13"/>
+      <c r="XC59" s="13"/>
+      <c r="XD59" s="13"/>
+      <c r="XE59" s="13"/>
+      <c r="XF59" s="13"/>
+      <c r="XG59" s="13"/>
+      <c r="XH59" s="13"/>
+      <c r="XI59" s="13"/>
+      <c r="XJ59" s="13"/>
+      <c r="XK59" s="13"/>
+      <c r="XL59" s="13"/>
+      <c r="XM59" s="13"/>
+      <c r="XN59" s="13"/>
+      <c r="XO59" s="13"/>
+      <c r="XP59" s="13"/>
+      <c r="XQ59" s="13"/>
+      <c r="XR59" s="13"/>
+      <c r="XS59" s="13"/>
+      <c r="XT59" s="13"/>
+      <c r="XU59" s="13"/>
+      <c r="XV59" s="13"/>
+      <c r="XW59" s="13"/>
+      <c r="XX59" s="13"/>
+      <c r="XY59" s="13"/>
+      <c r="XZ59" s="13"/>
+      <c r="YA59" s="13"/>
+      <c r="YB59" s="13"/>
+      <c r="YC59" s="13"/>
+      <c r="YD59" s="13"/>
+      <c r="YE59" s="13"/>
+      <c r="YF59" s="13"/>
+      <c r="YG59" s="13"/>
+      <c r="YH59" s="13"/>
+      <c r="YI59" s="13"/>
+      <c r="YJ59" s="13"/>
+      <c r="YK59" s="13"/>
+      <c r="YL59" s="13"/>
+      <c r="YM59" s="13"/>
+      <c r="YN59" s="13"/>
+      <c r="YO59" s="13"/>
+      <c r="YP59" s="13"/>
+      <c r="YQ59" s="13"/>
+      <c r="YR59" s="13"/>
+      <c r="YS59" s="13"/>
+      <c r="YT59" s="13"/>
+      <c r="YU59" s="13"/>
+      <c r="YV59" s="13"/>
+      <c r="YW59" s="13"/>
+      <c r="YX59" s="13"/>
+      <c r="YY59" s="13"/>
+      <c r="YZ59" s="13"/>
+      <c r="ZA59" s="13"/>
+      <c r="ZB59" s="13"/>
+      <c r="ZC59" s="13"/>
+      <c r="ZD59" s="13"/>
+      <c r="ZE59" s="13"/>
+      <c r="ZF59" s="13"/>
+      <c r="ZG59" s="13"/>
+      <c r="ZH59" s="13"/>
+      <c r="ZI59" s="13"/>
+      <c r="ZJ59" s="13"/>
+      <c r="ZK59" s="13"/>
+      <c r="ZL59" s="13"/>
+      <c r="ZM59" s="13"/>
+      <c r="ZN59" s="13"/>
+      <c r="ZO59" s="13"/>
+      <c r="ZP59" s="13"/>
+      <c r="ZQ59" s="13"/>
+      <c r="ZR59" s="13"/>
+      <c r="ZS59" s="13"/>
+      <c r="ZT59" s="13"/>
+      <c r="ZU59" s="13"/>
+      <c r="ZV59" s="13"/>
+      <c r="ZW59" s="13"/>
+      <c r="ZX59" s="13"/>
+      <c r="ZY59" s="13"/>
+      <c r="ZZ59" s="13"/>
+      <c r="AAA59" s="13"/>
+      <c r="AAB59" s="13"/>
+      <c r="AAC59" s="13"/>
+      <c r="AAD59" s="13"/>
+      <c r="AAE59" s="13"/>
+      <c r="AAF59" s="13"/>
+      <c r="AAG59" s="13"/>
+      <c r="AAH59" s="13"/>
+      <c r="AAI59" s="13"/>
+      <c r="AAJ59" s="13"/>
+      <c r="AAK59" s="13"/>
+      <c r="AAL59" s="13"/>
+      <c r="AAM59" s="13"/>
+      <c r="AAN59" s="13"/>
+      <c r="AAO59" s="13"/>
+      <c r="AAP59" s="13"/>
+      <c r="AAQ59" s="13"/>
+      <c r="AAR59" s="13"/>
+      <c r="AAS59" s="13"/>
+      <c r="AAT59" s="13"/>
+      <c r="AAU59" s="13"/>
+      <c r="AAV59" s="13"/>
+      <c r="AAW59" s="13"/>
+      <c r="AAX59" s="13"/>
+      <c r="AAY59" s="13"/>
+      <c r="AAZ59" s="13"/>
+      <c r="ABA59" s="13"/>
+      <c r="ABB59" s="13"/>
+      <c r="ABC59" s="13"/>
+      <c r="ABD59" s="13"/>
+      <c r="ABE59" s="13"/>
+      <c r="ABF59" s="13"/>
+      <c r="ABG59" s="13"/>
+      <c r="ABH59" s="13"/>
+      <c r="ABI59" s="13"/>
+      <c r="ABJ59" s="13"/>
+      <c r="ABK59" s="13"/>
+      <c r="ABL59" s="13"/>
+      <c r="ABM59" s="13"/>
+      <c r="ABN59" s="13"/>
+      <c r="ABO59" s="13"/>
+      <c r="ABP59" s="13"/>
+      <c r="ABQ59" s="13"/>
+      <c r="ABR59" s="13"/>
+      <c r="ABS59" s="13"/>
+      <c r="ABT59" s="13"/>
+      <c r="ABU59" s="13"/>
+      <c r="ABV59" s="13"/>
+      <c r="ABW59" s="13"/>
+      <c r="ABX59" s="13"/>
+      <c r="ABY59" s="13"/>
+      <c r="ABZ59" s="13"/>
+      <c r="ACA59" s="13"/>
+      <c r="ACB59" s="13"/>
+      <c r="ACC59" s="13"/>
+      <c r="ACD59" s="13"/>
+      <c r="ACE59" s="13"/>
+      <c r="ACF59" s="13"/>
+      <c r="ACG59" s="13"/>
+      <c r="ACH59" s="13"/>
+      <c r="ACI59" s="13"/>
+      <c r="ACJ59" s="13"/>
+      <c r="ACK59" s="13"/>
+      <c r="ACL59" s="13"/>
+      <c r="ACM59" s="13"/>
+      <c r="ACN59" s="13"/>
+      <c r="ACO59" s="13"/>
+      <c r="ACP59" s="13"/>
+      <c r="ACQ59" s="13"/>
+      <c r="ACR59" s="13"/>
+      <c r="ACS59" s="13"/>
+      <c r="ACT59" s="13"/>
+      <c r="ACU59" s="13"/>
+      <c r="ACV59" s="13"/>
+      <c r="ACW59" s="13"/>
+      <c r="ACX59" s="13"/>
+      <c r="ACY59" s="13"/>
+      <c r="ACZ59" s="13"/>
+      <c r="ADA59" s="13"/>
+      <c r="ADB59" s="13"/>
+      <c r="ADC59" s="13"/>
+      <c r="ADD59" s="13"/>
+      <c r="ADE59" s="13"/>
+      <c r="ADF59" s="13"/>
+      <c r="ADG59" s="13"/>
+      <c r="ADH59" s="13"/>
+      <c r="ADI59" s="13"/>
+      <c r="ADJ59" s="13"/>
+      <c r="ADK59" s="13"/>
+      <c r="ADL59" s="13"/>
+      <c r="ADM59" s="13"/>
+      <c r="ADN59" s="13"/>
+      <c r="ADO59" s="13"/>
+      <c r="ADP59" s="13"/>
+      <c r="ADQ59" s="13"/>
+      <c r="ADR59" s="13"/>
+      <c r="ADS59" s="13"/>
+      <c r="ADT59" s="13"/>
+      <c r="ADU59" s="13"/>
+      <c r="ADV59" s="13"/>
+      <c r="ADW59" s="13"/>
+      <c r="ADX59" s="13"/>
+      <c r="ADY59" s="13"/>
+      <c r="ADZ59" s="13"/>
+      <c r="AEA59" s="13"/>
+      <c r="AEB59" s="13"/>
+      <c r="AEC59" s="13"/>
+      <c r="AED59" s="13"/>
+      <c r="AEE59" s="13"/>
+      <c r="AEF59" s="13"/>
+      <c r="AEG59" s="13"/>
+      <c r="AEH59" s="13"/>
+      <c r="AEI59" s="13"/>
+      <c r="AEJ59" s="13"/>
+      <c r="AEK59" s="13"/>
+      <c r="AEL59" s="13"/>
+      <c r="AEM59" s="13"/>
+      <c r="AEN59" s="13"/>
+      <c r="AEO59" s="13"/>
+      <c r="AEP59" s="13"/>
+      <c r="AEQ59" s="13"/>
+      <c r="AER59" s="13"/>
+      <c r="AES59" s="13"/>
+      <c r="AET59" s="13"/>
+      <c r="AEU59" s="13"/>
+      <c r="AEV59" s="13"/>
+      <c r="AEW59" s="13"/>
+      <c r="AEX59" s="13"/>
+      <c r="AEY59" s="13"/>
+      <c r="AEZ59" s="13"/>
+      <c r="AFA59" s="13"/>
+      <c r="AFB59" s="13"/>
+      <c r="AFC59" s="13"/>
+      <c r="AFD59" s="13"/>
+      <c r="AFE59" s="13"/>
+      <c r="AFF59" s="13"/>
+      <c r="AFG59" s="13"/>
+      <c r="AFH59" s="13"/>
+      <c r="AFI59" s="13"/>
+      <c r="AFJ59" s="13"/>
+      <c r="AFK59" s="13"/>
+      <c r="AFL59" s="13"/>
+      <c r="AFM59" s="13"/>
+      <c r="AFN59" s="13"/>
+      <c r="AFO59" s="13"/>
+      <c r="AFP59" s="13"/>
+      <c r="AFQ59" s="13"/>
+      <c r="AFR59" s="13"/>
+      <c r="AFS59" s="13"/>
+      <c r="AFT59" s="13"/>
+      <c r="AFU59" s="13"/>
+      <c r="AFV59" s="13"/>
+      <c r="AFW59" s="13"/>
+      <c r="AFX59" s="13"/>
+      <c r="AFY59" s="13"/>
+      <c r="AFZ59" s="13"/>
+      <c r="AGA59" s="13"/>
+      <c r="AGB59" s="13"/>
+      <c r="AGC59" s="13"/>
+      <c r="AGD59" s="13"/>
+      <c r="AGE59" s="13"/>
+      <c r="AGF59" s="13"/>
+      <c r="AGG59" s="13"/>
+      <c r="AGH59" s="13"/>
+      <c r="AGI59" s="13"/>
+      <c r="AGJ59" s="13"/>
+      <c r="AGK59" s="13"/>
+      <c r="AGL59" s="13"/>
+      <c r="AGM59" s="13"/>
+      <c r="AGN59" s="13"/>
+      <c r="AGO59" s="13"/>
+      <c r="AGP59" s="13"/>
+      <c r="AGQ59" s="13"/>
+      <c r="AGR59" s="13"/>
+      <c r="AGS59" s="13"/>
+      <c r="AGT59" s="13"/>
+      <c r="AGU59" s="13"/>
+      <c r="AGV59" s="13"/>
+      <c r="AGW59" s="13"/>
+      <c r="AGX59" s="13"/>
+      <c r="AGY59" s="13"/>
+      <c r="AGZ59" s="13"/>
+      <c r="AHA59" s="13"/>
+      <c r="AHB59" s="13"/>
+      <c r="AHC59" s="13"/>
+      <c r="AHD59" s="13"/>
+      <c r="AHE59" s="13"/>
+      <c r="AHF59" s="13"/>
+      <c r="AHG59" s="13"/>
+      <c r="AHH59" s="13"/>
+      <c r="AHI59" s="13"/>
+      <c r="AHJ59" s="13"/>
+      <c r="AHK59" s="13"/>
+      <c r="AHL59" s="13"/>
+      <c r="AHM59" s="13"/>
+      <c r="AHN59" s="13"/>
+      <c r="AHO59" s="13"/>
+      <c r="AHP59" s="13"/>
+      <c r="AHQ59" s="13"/>
+      <c r="AHR59" s="13"/>
+      <c r="AHS59" s="13"/>
+      <c r="AHT59" s="13"/>
+      <c r="AHU59" s="13"/>
+      <c r="AHV59" s="13"/>
+      <c r="AHW59" s="13"/>
+      <c r="AHX59" s="13"/>
+      <c r="AHY59" s="13"/>
+      <c r="AHZ59" s="13"/>
+      <c r="AIA59" s="13"/>
+      <c r="AIB59" s="13"/>
+      <c r="AIC59" s="13"/>
+      <c r="AID59" s="13"/>
+      <c r="AIE59" s="13"/>
+      <c r="AIF59" s="13"/>
+      <c r="AIG59" s="13"/>
+      <c r="AIH59" s="13"/>
+      <c r="AII59" s="13"/>
+      <c r="AIJ59" s="13"/>
+      <c r="AIK59" s="13"/>
+      <c r="AIL59" s="13"/>
+      <c r="AIM59" s="13"/>
+      <c r="AIN59" s="13"/>
+      <c r="AIO59" s="13"/>
+      <c r="AIP59" s="13"/>
+      <c r="AIQ59" s="13"/>
+      <c r="AIR59" s="13"/>
+      <c r="AIS59" s="13"/>
+      <c r="AIT59" s="13"/>
+      <c r="AIU59" s="13"/>
+      <c r="AIV59" s="13"/>
+      <c r="AIW59" s="13"/>
+      <c r="AIX59" s="13"/>
+      <c r="AIY59" s="13"/>
+      <c r="AIZ59" s="13"/>
+      <c r="AJA59" s="13"/>
+      <c r="AJB59" s="13"/>
+      <c r="AJC59" s="13"/>
+      <c r="AJD59" s="13"/>
+      <c r="AJE59" s="13"/>
+      <c r="AJF59" s="13"/>
+      <c r="AJG59" s="13"/>
+      <c r="AJH59" s="13"/>
+      <c r="AJI59" s="13"/>
+      <c r="AJJ59" s="13"/>
+      <c r="AJK59" s="13"/>
+      <c r="AJL59" s="13"/>
+      <c r="AJM59" s="13"/>
+      <c r="AJN59" s="13"/>
+      <c r="AJO59" s="13"/>
+      <c r="AJP59" s="13"/>
+      <c r="AJQ59" s="13"/>
+      <c r="AJR59" s="13"/>
+      <c r="AJS59" s="13"/>
+      <c r="AJT59" s="13"/>
+      <c r="AJU59" s="13"/>
+      <c r="AJV59" s="13"/>
+      <c r="AJW59" s="13"/>
+      <c r="AJX59" s="13"/>
+      <c r="AJY59" s="13"/>
+      <c r="AJZ59" s="13"/>
+      <c r="AKA59" s="13"/>
+      <c r="AKB59" s="13"/>
+      <c r="AKC59" s="13"/>
+      <c r="AKD59" s="13"/>
+      <c r="AKE59" s="13"/>
+      <c r="AKF59" s="13"/>
+      <c r="AKG59" s="13"/>
+      <c r="AKH59" s="13"/>
+      <c r="AKI59" s="13"/>
+      <c r="AKJ59" s="13"/>
+      <c r="AKK59" s="13"/>
+      <c r="AKL59" s="13"/>
+      <c r="AKM59" s="13"/>
+      <c r="AKN59" s="13"/>
+      <c r="AKO59" s="13"/>
+      <c r="AKP59" s="13"/>
+      <c r="AKQ59" s="13"/>
+      <c r="AKR59" s="13"/>
+      <c r="AKS59" s="13"/>
+      <c r="AKT59" s="13"/>
+      <c r="AKU59" s="13"/>
+      <c r="AKV59" s="13"/>
+      <c r="AKW59" s="13"/>
+      <c r="AKX59" s="13"/>
+      <c r="AKY59" s="13"/>
+      <c r="AKZ59" s="13"/>
+      <c r="ALA59" s="13"/>
+      <c r="ALB59" s="13"/>
+      <c r="ALC59" s="13"/>
+      <c r="ALD59" s="13"/>
+      <c r="ALE59" s="13"/>
+      <c r="ALF59" s="13"/>
+      <c r="ALG59" s="13"/>
+      <c r="ALH59" s="13"/>
+      <c r="ALI59" s="13"/>
+      <c r="ALJ59" s="13"/>
+      <c r="ALK59" s="13"/>
+      <c r="ALL59" s="13"/>
+      <c r="ALM59" s="13"/>
+      <c r="ALN59" s="13"/>
+      <c r="ALO59" s="13"/>
+      <c r="ALP59" s="13"/>
+      <c r="ALQ59" s="13"/>
+      <c r="ALR59" s="13"/>
+      <c r="ALS59" s="13"/>
+      <c r="ALT59" s="13"/>
+      <c r="ALU59" s="13"/>
+      <c r="ALV59" s="13"/>
+      <c r="ALW59" s="13"/>
+      <c r="ALX59" s="13"/>
+      <c r="ALY59" s="13"/>
+      <c r="ALZ59" s="13"/>
+      <c r="AMA59" s="13"/>
+      <c r="AMB59" s="13"/>
+      <c r="AMC59" s="13"/>
+      <c r="AMD59" s="13"/>
+      <c r="AME59" s="13"/>
+      <c r="AMF59" s="13"/>
+      <c r="AMG59" s="13"/>
+      <c r="AMH59" s="13"/>
+      <c r="AMI59" s="13"/>
+      <c r="AMJ59" s="13"/>
+      <c r="AMK59" s="13"/>
+      <c r="AML59" s="13"/>
+      <c r="AMM59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B60" s="4" t="n">
         <v>44633.6388888889</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="4" t="n">
         <v>44934.4722222222</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1" t="n">
         <v>164.149169921875</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="H60" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="I60" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="J60" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="K60" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="L60" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J60" s="1" t="n">
+      <c r="M60" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K60" s="1" t="n">
+      <c r="N60" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="L60" s="1" t="n">
+      <c r="O60" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M60" s="1" t="n">
+      <c r="P60" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="N60" s="1" t="n">
+      <c r="Q60" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="O60" s="5" t="n">
+      <c r="R60" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="P60" s="5" t="n">
+      <c r="S60" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="Q60" s="5" t="n">
+      <c r="T60" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="R60" s="5" t="n">
+      <c r="U60" s="6" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B61" s="4" t="n">
         <v>42378.5416666667</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="4" t="n">
         <v>42689.2916666667</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1" t="n">
         <v>170.273681640625</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="H61" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="I61" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="J61" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="K61" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="L61" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J61" s="1" t="n">
+      <c r="M61" s="1" t="n">
         <v>150</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>43</v>
       </c>
       <c r="N61" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="O61" s="5" t="n">
+      <c r="O61" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="P61" s="5" t="n">
+      <c r="R61" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="S61" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="Q61" s="5" t="n">
+      <c r="T61" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="R61" s="5" t="n">
+      <c r="U61" s="6" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="n">
         <v>42689.4583333333</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="4" t="n">
         <v>43014.7916666667</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1" t="n">
         <v>232.77880859375</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="H62" s="1" t="n">
         <v>20731</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="I62" s="11" t="n">
         <v>0.49</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="J62" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="K62" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="L62" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="M62" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="N62" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="L62" s="5" t="n">
+      <c r="O62" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="M62" s="5" t="n">
+      <c r="P62" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="N62" s="5" t="n">
+      <c r="Q62" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="O62" s="1" t="n">
+      <c r="R62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="P62" s="1" t="n">
+      <c r="S62" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="Q62" s="1" t="n">
+      <c r="T62" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R62" s="1" t="n">
+      <c r="U62" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="J63" s="0"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="M63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B64" s="4" t="n">
         <v>43048.5</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="4" t="n">
         <v>43372.375</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1" t="n">
         <v>150.552368164063</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="H64" s="1" t="n">
         <v>16608</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="I64" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="J64" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="K64" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="L64" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J64" s="1" t="n">
+      <c r="M64" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="N64" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="L64" s="5" t="n">
+      <c r="O64" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M64" s="5" t="n">
+      <c r="P64" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="N64" s="5" t="n">
+      <c r="Q64" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="O64" s="1" t="n">
+      <c r="R64" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="P64" s="1" t="n">
+      <c r="S64" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q64" s="1" t="n">
+      <c r="T64" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="R64" s="1" t="n">
+      <c r="U64" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B65" s="4" t="n">
         <v>43372.5833333333</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="4" t="n">
         <v>43798.6666666667</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="1" t="n">
         <v>125.9208984375</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="H65" s="1" t="n">
         <v>16608</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="I65" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="J65" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="K65" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="L65" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J65" s="1" t="n">
+      <c r="M65" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="N65" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="L65" s="5" t="n">
+      <c r="O65" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M65" s="5" t="n">
+      <c r="P65" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="N65" s="5" t="n">
+      <c r="Q65" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="O65" s="1" t="n">
+      <c r="R65" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="P65" s="1" t="n">
+      <c r="S65" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="Q65" s="1" t="n">
+      <c r="T65" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="R65" s="1" t="n">
+      <c r="U65" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B66" s="4" t="n">
         <v>43798.9305555556</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="4" t="n">
         <v>44167.4722222222</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="1" t="n">
         <v>164.997924804688</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="H66" s="1" t="n">
         <v>16608</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="I66" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="J66" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="K66" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="L66" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J66" s="1" t="n">
+      <c r="M66" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="N66" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L66" s="5" t="n">
+      <c r="O66" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M66" s="5" t="n">
+      <c r="P66" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N66" s="5" t="n">
+      <c r="Q66" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="O66" s="1" t="n">
+      <c r="R66" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="P66" s="1" t="n">
+      <c r="S66" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q66" s="1" t="n">
+      <c r="T66" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="R66" s="1" t="n">
+      <c r="U66" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B67" s="4" t="n">
         <v>44167.6388888889</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="4" t="n">
         <v>44626.6388888889</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="1" t="n">
         <v>142.979858398438</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="H67" s="1" t="n">
         <v>16608</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="I67" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="J67" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="K67" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I67" s="1" t="n">
+      <c r="L67" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J67" s="1" t="n">
+      <c r="M67" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="N67" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L67" s="5" t="n">
+      <c r="O67" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="M67" s="5" t="n">
+      <c r="P67" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N67" s="5" t="n">
+      <c r="Q67" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="O67" s="1" t="n">
+      <c r="R67" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="P67" s="1" t="n">
+      <c r="S67" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q67" s="1" t="n">
+      <c r="T67" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="R67" s="1" t="n">
+      <c r="U67" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B68" s="4" t="n">
         <v>44627.1392824074</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="4" t="n">
         <v>44928.4726157407</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="1" t="n">
         <v>158.073486328125</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="H68" s="1" t="n">
         <v>16608</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="I68" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="J68" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="K68" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="I68" s="1" t="n">
+      <c r="L68" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J68" s="1" t="n">
+      <c r="M68" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="N68" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="L68" s="5" t="n">
+      <c r="O68" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="M68" s="5" t="n">
+      <c r="P68" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N68" s="5" t="n">
+      <c r="Q68" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="O68" s="1" t="n">
+      <c r="R68" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="P68" s="1" t="n">
+      <c r="S68" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q68" s="1" t="n">
+      <c r="T68" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="R68" s="1" t="n">
+      <c r="U68" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B69" s="4" t="n">
         <v>42371.6666666667</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="4" t="n">
         <v>42683.3333333333</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="1" t="n">
         <v>198.127807617188</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="H69" s="1" t="n">
         <v>17367</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="I69" s="11" t="n">
         <v>0.45</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="J69" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="H69" s="1" t="n">
+      <c r="K69" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="I69" s="1" t="n">
+      <c r="L69" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="J69" s="1" t="n">
+      <c r="M69" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K69" s="5" t="n">
+      <c r="N69" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="L69" s="5" t="n">
+      <c r="O69" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="M69" s="5" t="n">
+      <c r="P69" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="N69" s="5" t="n">
+      <c r="Q69" s="6" t="n">
         <v>32</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="P69" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q69" s="1" t="n">
-        <v>35</v>
       </c>
       <c r="R69" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="S69" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B70" s="4" t="n">
         <v>42683.5833333333</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="4" t="n">
         <v>43048.2811458333</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="1" t="n">
         <v>163.209106445313</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="H70" s="1" t="n">
         <v>17367</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="I70" s="11" t="n">
         <v>0.45</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="J70" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="K70" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="I70" s="1" t="n">
+      <c r="L70" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="J70" s="1" t="n">
+      <c r="M70" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K70" s="5" t="n">
+      <c r="N70" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="L70" s="5" t="n">
+      <c r="O70" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="M70" s="5" t="n">
+      <c r="P70" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N70" s="5" t="n">
+      <c r="Q70" s="6" t="n">
         <v>33</v>
-      </c>
-      <c r="O70" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="1" t="n">
-        <v>35</v>
       </c>
       <c r="R70" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="S70" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>43015.0416666667</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>43381.375</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="1" t="n">
+        <v>200.5341796875</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I74" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>43381.5833333333</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>43758.375</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="1" t="n">
+        <v>123.434936523438</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I75" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>43758.6111111111</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>44178.3611111111</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="1" t="n">
+        <v>176.7255859375</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I76" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="N76" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="O76" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="P76" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q76" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>44178.4583333333</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>44633.4583333333</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="1" t="n">
+        <v>91.7740478515625</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I77" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>44633.6388888889</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>44934.4722222222</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="1" t="n">
+        <v>164.149169921875</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I78" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="S78" s="17" t="n">
+        <v>46</v>
+      </c>
+      <c r="T78" s="17" t="n">
+        <v>46</v>
+      </c>
+      <c r="U78" s="17" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>42378.5416666667</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>42689.2916666667</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="1" t="n">
+        <v>170.273681640625</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I79" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>42689.4583333333</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>43014.7916666667</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="1" t="n">
+        <v>232.77880859375</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>20731</v>
+      </c>
+      <c r="I80" s="11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
